--- a/example_excel_files/Example Excel Template.xlsx
+++ b/example_excel_files/Example Excel Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TooFastDan\Documents\MD_PhD Application\Cycle Analyzer\example_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149EC5A7-13E7-42AF-BD2E-2EB95990D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0B8D59-DCE6-421F-8DED-B6C561A86678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6075" windowWidth="29040" windowHeight="16440" xr2:uid="{0F127685-172B-4FDA-90F6-58D0273CA525}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{0F127685-172B-4FDA-90F6-58D0273CA525}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Schools</t>
   </si>
   <si>
-    <t>Secondary Invite</t>
-  </si>
-  <si>
     <t>Secondary Submission</t>
   </si>
   <si>
@@ -61,159 +58,15 @@
     <t>Acceptance</t>
   </si>
   <si>
-    <t>University of Alabama at Birmingham</t>
-  </si>
-  <si>
-    <t>University of Arizona</t>
-  </si>
-  <si>
-    <t>Stanford University</t>
-  </si>
-  <si>
-    <t>University of California, San Francisco</t>
-  </si>
-  <si>
-    <t>University of California, Irvine</t>
-  </si>
-  <si>
-    <t>University of California, Los Angeles</t>
-  </si>
-  <si>
-    <t>University of California, Davis</t>
-  </si>
-  <si>
-    <t>University of California, San Diego</t>
-  </si>
-  <si>
-    <t>University of Colorado, Denver</t>
-  </si>
-  <si>
-    <t>Yale University School of Medicine</t>
-  </si>
-  <si>
-    <t>University of Miami Miller School of Medicine</t>
-  </si>
-  <si>
-    <t>Emory University</t>
-  </si>
-  <si>
-    <t>Northwestern University Medical School</t>
-  </si>
-  <si>
-    <t>University of Chicago</t>
-  </si>
-  <si>
-    <t>University of Illinois at Chicago</t>
-  </si>
-  <si>
-    <t>Indiana University School of Medicine</t>
-  </si>
-  <si>
     <t>University of Iowa</t>
   </si>
   <si>
-    <t>University of Kansas Medical Center</t>
-  </si>
-  <si>
-    <t>Johns Hopkins University School of Medicine</t>
-  </si>
-  <si>
-    <t>University of Maryland School of Medicine</t>
-  </si>
-  <si>
-    <t>Harvard Medical School</t>
-  </si>
-  <si>
-    <t>Tufts University School of Medicine</t>
-  </si>
-  <si>
-    <t>University of Massachusetts Medical School</t>
-  </si>
-  <si>
-    <t>University of Michigan Medical School</t>
-  </si>
-  <si>
-    <t>University of Minnesota Medical School</t>
-  </si>
-  <si>
-    <t>Mayo Medical School</t>
-  </si>
-  <si>
-    <t>Washington University School of Medicine</t>
-  </si>
-  <si>
-    <t>Albert Einstein College of Medicine</t>
-  </si>
-  <si>
-    <t>Columbia University</t>
-  </si>
-  <si>
-    <t>Icahn School of Medicine at Mount Sinai</t>
-  </si>
-  <si>
-    <t>New York University School of Medicine</t>
-  </si>
-  <si>
-    <t>Stony Brook University</t>
-  </si>
-  <si>
-    <t>University of Rochester</t>
-  </si>
-  <si>
-    <t>Weill Cornell/Rockefeller/Sloan-Kettering</t>
-  </si>
-  <si>
-    <t>Duke University Medical Center</t>
-  </si>
-  <si>
-    <t>University of North Carolina at Chapel Hill</t>
-  </si>
-  <si>
     <t>Case Western Reserve University</t>
   </si>
   <si>
-    <t>Ohio State University College of Medicine</t>
-  </si>
-  <si>
-    <t>University of Cincinnati College of Medicine</t>
-  </si>
-  <si>
-    <t>Oregon Health and Science University School of Medicine</t>
-  </si>
-  <si>
-    <t>University of Pennsylvania Perelman School of Medicine</t>
-  </si>
-  <si>
     <t>University of Pittsburgh</t>
   </si>
   <si>
-    <t>Medical University of South Carolina</t>
-  </si>
-  <si>
-    <t>Vanderbilt University School of Medicine</t>
-  </si>
-  <si>
-    <t>Baylor College of Medicine</t>
-  </si>
-  <si>
-    <t>University of Texas Southwestern Medical Center</t>
-  </si>
-  <si>
-    <t>University of Texas Health Science Center Houston</t>
-  </si>
-  <si>
-    <t>University of Texas Health Science Center San Antonio</t>
-  </si>
-  <si>
-    <t>University of Virginia Health System</t>
-  </si>
-  <si>
-    <t>University of Washington School of Medicine</t>
-  </si>
-  <si>
-    <t>Medical College of Wisconsin</t>
-  </si>
-  <si>
     <t>University of Wisconsin</t>
   </si>
   <si>
@@ -230,12 +83,90 @@
   </si>
   <si>
     <t>4.  Delete these messages before uploading.</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>UCSF</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>University of North Carolina</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Weill Cornell Tri-I</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>Washington University in St. Louis</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Oregon Health and Science University</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>UT Southwestern</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>University of Colorado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,9 +210,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,20 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8599C06-C79F-4017-B909-83140B8550C5}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,284 +569,505 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44388</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44396</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>44410</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44567</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44571</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44401</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44383</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44385</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44476</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44532</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44373</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44391</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>44435</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44476</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44568</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44380</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>44460</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44490</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>44553</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44394</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>44510</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44570</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44403</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44377</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44389</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44414</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44396</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>44433</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44461</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44491</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44376</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44538</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44387</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44379</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44509</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44381</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44536</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44403</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44546</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44393</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>44434</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44531</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44575</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44395</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>44459</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44494</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44516</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44405</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>44494</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44515</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44540</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44405</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44373</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>44434</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44456</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44431</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44379</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>44573</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44382</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44470</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44388</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>44447</v>
+      </c>
+      <c r="E29" s="3">
+        <v>44502</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
+      <c r="B30" s="3">
+        <v>44409</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>44467</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44575</v>
+      </c>
+      <c r="H30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example_excel_files/Example Excel Template.xlsx
+++ b/example_excel_files/Example Excel Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TooFastDan\Documents\MD_PhD Application\Cycle Analyzer\example_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0B8D59-DCE6-421F-8DED-B6C561A86678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446DA379-DB0E-4A70-90AA-4BE12B3369A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{0F127685-172B-4FDA-90F6-58D0273CA525}"/>
+    <workbookView xWindow="-28920" yWindow="6075" windowWidth="29040" windowHeight="16440" xr2:uid="{0F127685-172B-4FDA-90F6-58D0273CA525}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8599C06-C79F-4017-B909-83140B8550C5}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
     <col min="5" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -583,11 +583,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -605,12 +602,11 @@
         <v>44571</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -622,12 +618,11 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -639,12 +634,11 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -658,12 +652,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -677,9 +670,11 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -693,7 +688,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -713,7 +708,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -733,7 +728,7 @@
         <v>44553</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -751,7 +746,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -765,7 +760,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -779,7 +774,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -795,7 +790,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -815,7 +810,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
